--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3646.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3646.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.4895848343435</v>
+        <v>0.4205231666564941</v>
       </c>
       <c r="B1">
-        <v>1.59591219736744</v>
+        <v>2.004952430725098</v>
       </c>
       <c r="C1">
-        <v>1.638304283869543</v>
+        <v>2.143982887268066</v>
       </c>
       <c r="D1">
-        <v>2.027365102282771</v>
+        <v>1.924914717674255</v>
       </c>
       <c r="E1">
-        <v>3.013690663917129</v>
+        <v>0.9912518262863159</v>
       </c>
     </row>
   </sheetData>
